--- a/500all/speech_level/speeches_CHRG-114hhrg95299.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95299.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations is meeting today to hear testimony concerning BLM's ongoing mismanagement of reclamation bonds for wind and solar energy projects on Federal land.    So this Subcommittee on Oversight and Investigations will come to order. Under Committee Rule 4(f), any oral opening statements at hearings are limited to the Chairman and the Ranking Minority Member and the Vice Chair and a designee of the Ranking Member. This will allow us to hear from our witnesses sooner, and help Members keep to their schedules.    Our subcommittee is meeting to hear testimony on a GAO report documenting BLM's chronic mismanagement of wind and solar reclamation bonds. I do politely ask everyone in the hearing to please silence your cell phones and anything else that makes noise. This will allow minimum distractions for both our Members and our guests to ensure that we all gain as much from this as we can.    Since I am not a judge anymore and do not have a bailiff, I cannot have you carried out if you make noise--at least not immediately--but anyway, please be polite. I didn't even have to say anything to the bailiff, he just went and got them out. That was kind of nice.    [Laughter.]</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman. It is always good to be with you, especially on a sunny day after a bad rain last night. Hopefully this is not indicative of today's hearing.    I want to thank the witnesses for taking the time to be here today.    First, I want to applaud the Chairman's focus on whether energy developers on Bureau of Land Management land are adhering to the polluter pays principle. This common-sense principle says that if you cause environmental harm, you are responsible for cleaning it up. It is one way to make sure that companies do not try to increase their profits by making the taxpayer cover the clean-up costs.    BLM adheres to this principle by requiring developers with projects on BLM land to post reclamation bonds. In other words, the developer has to set aside money to restore the site if the company cannot do it when it is time for them to leave.    There are a number of reasons a developer might not be able to pay the clean-up costs, but the best example is that the company has declared bankruptcy. I am finding that in some other projects in our own home state right now.    When that happens and there is no bond or other financial assurance, the taxpayer is stuck with the bill to clean up the pollution. The GAO report, that is at the center of today's hearing, identifies about $100 million in bonds for wind and solar projects on BLM lands, so this is a potentially serious issue.    The GAO looked at instances when renewable energy companies have left taxpayers on the hook for clean-up costs, and they found none. The GAO report found none. Not a single clean energy project was abandoned by its developer when they moved off the land.    The GAO report also finds that BLM could be doing a better job at managing reclamation bonds, and quite frankly, I agree. So does BLM. All five of GAO's recommendations will be addressed in a rulemaking that was issued last September, 2014. Quite frankly, I think there are bigger fish to fry here.    Since the Chairman and I appear to have found common ground in our concern for preserving the polluter pays principle and protecting the American taxpayer from polluters, I think it would be a good use of this subcommittee's time to look at the issue of self-bonding by the biggest coal companies and specifically focusing on the use of subsidiaries to create the appearance of financial strength.    Coal mining companies are able to avoid purchasing the kind of reclamation bonds required for projects like wind, solar, and oil and gas development by self-bonding if they can demonstrate that they are financially strong.    Coal companies that qualified for self-bonding in the past are now facing declining demand for coal and are suffering from disinvestment. This is drastically changing the landscape. In May 2015, the state of Wyoming notified a company that they no longer qualified for self-bonding. If a company is self-bonded but cannot cover reclamation costs, in reality who is going to pay the bill? The taxpayer, and that is the heart of this hearing.    A 2015 report by the Western Organization of Resource Councils and others found that self-bonding by coal companies creates a taxpayer exposure that is far greater than that posed by clean energy developments on BLM lands. There was an estimated $3.5 billion in outstanding coal self-bonds as of 2014, compared to $100 million in clean energy bonds on BLM lands.    The Office of Surface Mining Reclamation and Enforcement is already investigating the issue. Mr. Chairman, I hope this subcommittee can build on this hearing today by focusing on what, as I discovered in my 2:00 a.m. reading, is an even bigger risk to the taxpayer.    I have respectfully handed you a letter to memorialize this request for the record so that we could begin a bipartisan investigation into this issue, and I hope that we can work together on it.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Fennell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fennell. Mr. Chairman, Ranking Member Dingell, and members of the subcommittee, I am pleased to be here today to discuss our June 2015 report on BLM's policies and practices for bonding renewable energy development on Federal land.    BLM plays a key role in managing energy produced on Federal lands, including the growing areas of wind and solar projects. To ensure compliance with various requirements, BLM directs developers to obtain bonds to cover the cost of returning the land to its pre-developed condition when a solar or wind project terminates; this process is known as reclamation. If the bonds are inadequate to cover these costs, the Federal Government may have to pay.    My testimony today highlights the findings of our 2015 report. Specifically I will discuss three areas: first, BLM's policies for the bonding of wind and solar projects; second, the amount of bonds held by BLM for the reclamation of wind and solar projects and how BLM tracks these projects and bonds; and third, the extent to which BLM ensures that the bonds for wind and solar rights-of-way are adequate to cover reclamation costs.    First, BLM has different policies for bonding wind and solar projects on Federal land. For example, BLM's 2008 wind policy established minimum bond amounts, but its 2010 solar policy did not. However, the agency has issued a proposed rule that would establish consistent requirements for the bonding of wind and solar projects in several areas, including ensuring the minimum bond amount.    Second, we found that BLM has about $100 million in bonds to cover reclamation costs associated with wind and solar projects on Federal lands. BLM tracks bonds through two data systems, but we found that neither system was reliable for this purpose.    Specifically, we found multiple instances in each system where information was missing, inaccurate, or had not been updated. Furthermore, the agency does not have a timeliness standard for wind and solar data entry, contrary to the standard for its mining program.    Third, we found that BLM had limited assurance that bonds for wind and solar rights-of-way will cover reclamation costs. Specifically, we found that about one-third of the wind and solar development rights-of-way were underbonded by about as much as $15 million in total.    In addition, we found wide variation in how BLM staff documented bond decisions for wind and solar rights-of-way. For example, we found little or no documentation to support the bond amount for about two-thirds of the wind rights-of-way we reviewed.    In addition, BLM does not adequately ensure the wind and solar bond instruments are properly secured, handled, and stored. BLM staff in two field offices told us that bonds were stored in files rather than in secured, locked cabinets or a safe.    Furthermore, there are no policies related to the proper handling and storage of bond instruments for wind and solar projects.    BLM also inconsistently adheres to its policies for the periodic review of the amounts of wind and solar bonds to verify their adequacy. For example, we found that about half of the bonds were at least 4 months overdue for review.    In conclusion, BLM does not have detailed policies to ensure that decisions are accurately documented, bonds are properly maintained and secured, or standards exist for timely data entry. As a result, BLM has limited assurance that the bonds in place will be adequate to cover reclamation costs if the developer does not meet its obligations.    Given these findings, we made five recommendations in our report for BLM to develop policies for documenting decisions, for proper handling and storage of bonds, for timely data entry, as well as to take steps to ensure projects are periodically reviewed to ensure bond adequacy.    Mr. Chairman, Ranking Member Dingell, and members of the subcommittee, this completes my prepared statement.    I am accompanied by Liz Erdmann, who directly worked on this particular report. We will be happy to respond to questions.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellis. Mr. Chairman, Ranking Member Dingell, and members of the subcommittee, thank you for the opportunity to be here today.    BLM manages nearly 250 million acres of surface property and 700 million acres of subsurface estate in the Nation. That means 10 percent of the Nation's surface, or nearly a third of its mineral estate.    We manage these lands under a dual framework of multiple use and sustained yield. Facilitating the responsible development of renewable energy resources on public lands is a cornerstone of the Administration's energy strategy. Since 2009, the BLM has approved 55 renewable energy generation and transmission projects. This includes 32 solar projects, 11 wind farms, 12 geothermal plants.    These projects will provide more than 14,500 megawatts of power, or roughly enough electricity to power 4.9 million homes and provide over 24,000 jobs in construction and operations.    Renewable energy projects on public lands have already generated an estimated $8.6 billion in total capital investments, with the potential for an additional $28 billion for approved projects that are pending construction.    As stewards of America's public lands, we take very seriously our responsibility to sustain the health and diversity of those lands. To ensure that lands are restored after a project is decommissioned, we require project developers to post bonds to cover future expenses.    As with all development on public lands, the BLM is committed to ensuring appropriate bonding of solar and wind energy projects. We continue to take steps to improve the processes and procedures for solar and wind energy bonding. For example, in September of 2014, the BLM issued a proposed comprehensive leasing rule for solar and wind energy development that includes mandatory bonding requirements. We are currently in the process of reviewing comments on the appropriate minimum bond amounts and will make a determination as part of that final rule.    Further, as part of the implementation of the final rule, we plan to update policies to improve recordkeeping and processing of renewable energy bonds. These policies will identify standards for proper project file documentation and establish automated notifications that a right-of-way is due for bond adequacy review.    The policies will also include a variety of internal controls: an annual certification by managers that bonds are properly processed, held in secure locations, and readily available.    The BLM also has been engaged with GAO to ensure the bonds for reclamation costs of wind and solar projects are adequately documented. We appreciate the work of the GAO and generally agree with their recommendations. We believe that through the publication and implementation of the proposed competitive solar and wind leasing energy rule all of GAO's recommendations will be fully addressed.    We take our responsibility to maintain proper documentation of bond instruments seriously. We will continue to take steps to address any identified shortcomings, including training staff and updating office-specific procedures.    BLM's responsibility to ensure appropriate bonding for energy projects extends to all types of development on public lands. For example, we recently solicited public input on bonding requirements for oil and gas projects on public lands, updating potentially outdated regulations.    We are also reviewing individual oil and gas well bonds on a case-by-case basis and raising bonding requirements where appropriate using existing authorities.    In conclusion, Mr. Chairman and members of the committee, we remain committed to ensuring that development of all types of public lands occurs in an environmentally sound manner, and we will continue to take steps to ensure that projects are bonded appropriately.    Thank you.</t>
   </si>
   <si>
@@ -241,12 +229,6 @@
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    To be clear, my question was about the 80 percent that were not available previously, not currently, so to set the record straight there.    At this time the Chair recognizes Mrs. Radewagen for 5 minutes.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman and the Ranking Member.    I also would like to thank the panel for appearing today.    Ms. Fennell, can you explain the reclamation process for wind and solar projects and describe why reclamation bonds are important?</t>
   </si>
   <si>
@@ -337,9 +319,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman.    I find it noteworthy that the Majority's information on this hearing, the focus of this hearing, and the questioning that has happened to date has been strangely silent about dirty fossil energy projects, and whether they might suffer from some of the same problems that are being leveled at clean renewable energy projects, or maybe even worse problems.    Now, Ms. Fennell, the GAO has written many reports on lax bonding policies and practices regarding the oil and gas program, too, correct?</t>
   </si>
   <si>
@@ -388,9 +367,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. I yield back to the Chairman.</t>
   </si>
   <si>
@@ -437,9 +413,6 @@
   </si>
   <si>
     <t>412308</t>
-  </si>
-  <si>
-    <t>Jared Polis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman.    I want to thank the Chairman for holding this hearing today, not because of some of the non-issues that the Majority continues to raise, but because I think this hearing speaks to the need for improvement in the development of renewable energies on public lands.    Along those lines, I introduced a bill earlier this month with Representative Gosar, the bipartisan bill--H.R. 2663, the Public Lands Renewable Energy Development Act, that would streamline the regulatory and permitting process for wind and solar development on public land.    It has been very frustrating to me as a policymaker how oil and gas is able to develop on public lands without doing NEPA studies, with minimum permitting delays--usually in a period of weeks or months--but renewable energy projects often take years to be able to permit on public lands.    I was going to ask Deputy Director Ellis if he would agree that encouraging the development of renewable energies on public lands is a critical national priority and what can the Federal Government do to streamline and make less costly and faster the permitting process for renewable energy projects on public lands?</t>
@@ -1345,11 +1318,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1371,11 +1342,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1397,11 +1366,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1423,11 +1390,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1447,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1473,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1501,11 +1462,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1525,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1553,11 +1510,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1577,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1605,11 +1558,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1629,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1657,11 +1606,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1681,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1709,11 +1654,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1733,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1761,11 +1702,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1785,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1813,11 +1750,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1837,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1865,11 +1798,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1889,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1917,11 +1846,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1941,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1969,11 +1894,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1993,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2021,11 +1942,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2045,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2073,11 +1990,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2097,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2125,11 +2038,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2149,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2177,11 +2086,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2201,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2229,11 +2134,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2253,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2281,11 +2182,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2305,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2331,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2357,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2383,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2409,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2435,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2461,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2487,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2513,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2539,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2565,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2591,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2617,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2643,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2669,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2695,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2721,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2747,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2773,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2801,11 +2662,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2825,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2851,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2877,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2903,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2929,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2955,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2981,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>76</v>
-      </c>
-      <c r="H65" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3007,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3033,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3059,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3085,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3111,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3137,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3163,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3189,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3215,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3241,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3267,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3293,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3319,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3345,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3371,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3397,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3423,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3449,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3475,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3501,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3527,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3553,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3581,11 +3382,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3605,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3631,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3657,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3683,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3709,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3735,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3761,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>106</v>
-      </c>
-      <c r="G95" t="s">
-        <v>107</v>
-      </c>
-      <c r="H95" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3787,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3813,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3839,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3865,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3891,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3917,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3943,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3969,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3997,11 +3766,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4021,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
-      </c>
-      <c r="G105" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4049,11 +3814,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4073,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
-      </c>
-      <c r="G107" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4101,11 +3862,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4125,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
-      </c>
-      <c r="G109" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4153,11 +3910,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4177,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4205,11 +3958,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4229,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4257,11 +4006,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4281,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4307,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4335,11 +4078,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4359,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4387,11 +4126,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4411,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>140</v>
-      </c>
-      <c r="G120" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4437,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4463,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>140</v>
-      </c>
-      <c r="G122" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4489,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4515,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>140</v>
-      </c>
-      <c r="G124" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4541,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4567,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
-      </c>
-      <c r="G126" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4593,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4619,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>140</v>
-      </c>
-      <c r="G128" t="s">
+        <v>132</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
         <v>141</v>
-      </c>
-      <c r="H128" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4645,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4671,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>140</v>
-      </c>
-      <c r="G130" t="s">
-        <v>141</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4699,11 +4414,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4723,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4751,11 +4462,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4775,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4803,11 +4510,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4827,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4855,11 +4558,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4879,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4907,11 +4606,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4931,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4959,11 +4654,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4983,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5011,11 +4702,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5035,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5063,11 +4750,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5087,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5115,11 +4798,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5139,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5167,11 +4846,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5191,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5219,11 +4894,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5243,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5271,11 +4942,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5295,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5323,11 +4990,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5347,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5375,11 +5038,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5399,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5427,11 +5086,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5451,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5479,11 +5134,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5503,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>106</v>
-      </c>
-      <c r="G162" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5531,11 +5182,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5555,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>106</v>
-      </c>
-      <c r="G164" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5583,11 +5230,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5607,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>106</v>
-      </c>
-      <c r="G166" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5635,11 +5278,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5659,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>106</v>
-      </c>
-      <c r="G168" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5687,11 +5326,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5711,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>106</v>
-      </c>
-      <c r="G170" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5739,11 +5374,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5763,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5791,11 +5422,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5815,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>26</v>
-      </c>
-      <c r="G174" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5843,11 +5470,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5867,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5895,11 +5518,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5919,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5947,11 +5566,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5971,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5999,11 +5614,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6023,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6051,11 +5662,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6075,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6103,11 +5710,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6127,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
-      </c>
-      <c r="G186" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6155,11 +5758,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6179,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6207,11 +5806,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6231,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6259,11 +5854,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6283,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6311,11 +5902,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6335,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
-      </c>
-      <c r="G194" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6363,11 +5950,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6387,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6413,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6439,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6465,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6491,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6517,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6543,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6569,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>26</v>
-      </c>
-      <c r="G203" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6595,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6621,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6647,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
-      </c>
-      <c r="G206" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6673,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>26</v>
-      </c>
-      <c r="G207" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6699,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
-      </c>
-      <c r="G208" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6725,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
-      </c>
-      <c r="G209" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6751,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>17</v>
-      </c>
-      <c r="G210" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6777,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>26</v>
-      </c>
-      <c r="G211" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6803,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>17</v>
-      </c>
-      <c r="G212" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6829,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>26</v>
-      </c>
-      <c r="G213" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6855,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>17</v>
-      </c>
-      <c r="G214" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6883,11 +6430,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6907,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>75</v>
-      </c>
-      <c r="G216" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6933,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6959,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>75</v>
-      </c>
-      <c r="G218" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6985,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7011,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>75</v>
-      </c>
-      <c r="G220" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7037,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>22</v>
-      </c>
-      <c r="G221" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7063,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>75</v>
-      </c>
-      <c r="G222" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7089,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>22</v>
-      </c>
-      <c r="G223" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7115,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>75</v>
-      </c>
-      <c r="G224" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7141,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>22</v>
-      </c>
-      <c r="G225" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7167,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>75</v>
-      </c>
-      <c r="G226" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7193,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>22</v>
-      </c>
-      <c r="G227" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7219,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>75</v>
-      </c>
-      <c r="G228" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7245,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7271,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>75</v>
-      </c>
-      <c r="G230" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7297,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7323,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>75</v>
-      </c>
-      <c r="G232" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7351,11 +6862,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7375,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>106</v>
-      </c>
-      <c r="G234" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7403,11 +6910,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7427,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>106</v>
-      </c>
-      <c r="G236" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7453,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7479,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>106</v>
-      </c>
-      <c r="G238" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7507,11 +7006,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7531,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>106</v>
-      </c>
-      <c r="G240" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7559,11 +7054,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7583,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>106</v>
-      </c>
-      <c r="G242" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7611,11 +7102,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7635,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>106</v>
-      </c>
-      <c r="G244" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7663,11 +7150,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7687,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>123</v>
-      </c>
-      <c r="G246" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7713,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>22</v>
-      </c>
-      <c r="G247" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7739,13 +7220,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>123</v>
-      </c>
-      <c r="G248" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7765,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>22</v>
-      </c>
-      <c r="G249" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7791,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>123</v>
-      </c>
-      <c r="G250" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7817,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
-      </c>
-      <c r="G251" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7843,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>123</v>
-      </c>
-      <c r="G252" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7869,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>22</v>
-      </c>
-      <c r="G253" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7895,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>123</v>
-      </c>
-      <c r="G254" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7921,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>22</v>
-      </c>
-      <c r="G255" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7947,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>123</v>
-      </c>
-      <c r="G256" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7973,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
-      </c>
-      <c r="G257" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7999,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>123</v>
-      </c>
-      <c r="G258" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8025,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>26</v>
-      </c>
-      <c r="G259" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8051,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>123</v>
-      </c>
-      <c r="G260" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8077,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>26</v>
-      </c>
-      <c r="G261" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8103,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>123</v>
-      </c>
-      <c r="G262" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8129,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>26</v>
-      </c>
-      <c r="G263" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8155,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>123</v>
-      </c>
-      <c r="G264" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8181,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>26</v>
-      </c>
-      <c r="G265" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8207,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>123</v>
-      </c>
-      <c r="G266" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8233,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>26</v>
-      </c>
-      <c r="G267" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8259,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>123</v>
-      </c>
-      <c r="G268" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8285,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>26</v>
-      </c>
-      <c r="G269" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8311,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>123</v>
-      </c>
-      <c r="G270" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8339,11 +7774,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>12</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8363,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>75</v>
-      </c>
-      <c r="G272" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8389,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>22</v>
-      </c>
-      <c r="G273" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8415,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>75</v>
-      </c>
-      <c r="G274" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8441,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8467,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>75</v>
-      </c>
-      <c r="G276" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8493,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>22</v>
-      </c>
-      <c r="G277" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8519,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>75</v>
-      </c>
-      <c r="G278" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8545,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>26</v>
-      </c>
-      <c r="G279" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8571,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>75</v>
-      </c>
-      <c r="G280" t="s">
-        <v>76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8599,11 +8014,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8623,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>22</v>
-      </c>
-      <c r="G282" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8651,11 +8062,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8675,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>22</v>
-      </c>
-      <c r="G284" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8703,11 +8110,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8727,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>22</v>
-      </c>
-      <c r="G286" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8755,11 +8158,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8779,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>22</v>
-      </c>
-      <c r="G288" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8807,11 +8206,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8831,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>106</v>
-      </c>
-      <c r="G290" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8859,11 +8254,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8885,11 +8278,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
